--- a/stats/pivot/UD_French-PUD/VERB-direct-obj.xlsx
+++ b/stats/pivot/UD_French-PUD/VERB-direct-obj.xlsx
@@ -10,10 +10,10 @@
     <sheet name="Globales" sheetId="1" r:id="rId1"/>
     <sheet name="a_stats" sheetId="2" r:id="rId2"/>
     <sheet name="a_phrases" sheetId="3" r:id="rId3"/>
-    <sheet name="fait_stats" sheetId="4" r:id="rId4"/>
-    <sheet name="fait_phrases" sheetId="5" r:id="rId5"/>
-    <sheet name="eu_stats" sheetId="6" r:id="rId6"/>
-    <sheet name="eu_phrases" sheetId="7" r:id="rId7"/>
+    <sheet name="eu_stats" sheetId="4" r:id="rId4"/>
+    <sheet name="eu_phrases" sheetId="5" r:id="rId5"/>
+    <sheet name="fait_stats" sheetId="6" r:id="rId6"/>
+    <sheet name="fait_phrases" sheetId="7" r:id="rId7"/>
     <sheet name="faire_stats" sheetId="8" r:id="rId8"/>
     <sheet name="faire_phrases" sheetId="9" r:id="rId9"/>
     <sheet name="avait_stats" sheetId="10" r:id="rId10"/>
@@ -22,19 +22,19 @@
     <sheet name="ont_phrases" sheetId="13" r:id="rId13"/>
     <sheet name="avoir_stats" sheetId="14" r:id="rId14"/>
     <sheet name="avoir_phrases" sheetId="15" r:id="rId15"/>
-    <sheet name="reçu_stats" sheetId="16" r:id="rId16"/>
-    <sheet name="reçu_phrases" sheetId="17" r:id="rId17"/>
-    <sheet name="voir_stats" sheetId="18" r:id="rId18"/>
-    <sheet name="voir_phrases" sheetId="19" r:id="rId19"/>
-    <sheet name="concernant_stats" sheetId="20" r:id="rId20"/>
-    <sheet name="concernant_phrases" sheetId="21" r:id="rId21"/>
+    <sheet name="prit_stats" sheetId="16" r:id="rId16"/>
+    <sheet name="prit_phrases" sheetId="17" r:id="rId17"/>
+    <sheet name="reçu_stats" sheetId="18" r:id="rId18"/>
+    <sheet name="reçu_phrases" sheetId="19" r:id="rId19"/>
+    <sheet name="voir_stats" sheetId="20" r:id="rId20"/>
+    <sheet name="voir_phrases" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="1113">
   <si>
     <t>nb_occurences</t>
   </si>
@@ -45,12 +45,12 @@
     <t>a</t>
   </si>
   <si>
+    <t>eu</t>
+  </si>
+  <si>
     <t>fait</t>
   </si>
   <si>
-    <t>eu</t>
-  </si>
-  <si>
     <t>faire</t>
   </si>
   <si>
@@ -63,6 +63,9 @@
     <t>avoir</t>
   </si>
   <si>
+    <t>prit</t>
+  </si>
+  <si>
     <t>reçu</t>
   </si>
   <si>
@@ -72,12 +75,15 @@
     <t>concernant</t>
   </si>
   <si>
-    <t>prit</t>
-  </si>
-  <si>
     <t>produire</t>
   </si>
   <si>
+    <t>traverser</t>
+  </si>
+  <si>
+    <t>obtenir</t>
+  </si>
+  <si>
     <t>protéger</t>
   </si>
   <si>
@@ -90,6 +96,9 @@
     <t>imposer</t>
   </si>
   <si>
+    <t>retirer</t>
+  </si>
+  <si>
     <t>trouver</t>
   </si>
   <si>
@@ -105,6 +114,9 @@
     <t>connu</t>
   </si>
   <si>
+    <t>contient</t>
+  </si>
+  <si>
     <t>aurait</t>
   </si>
   <si>
@@ -117,6 +129,12 @@
     <t>joué</t>
   </si>
   <si>
+    <t>donner</t>
+  </si>
+  <si>
+    <t>voit</t>
+  </si>
+  <si>
     <t>trouve</t>
   </si>
   <si>
@@ -129,39 +147,36 @@
     <t>mettre</t>
   </si>
   <si>
-    <t>traverser</t>
-  </si>
-  <si>
     <t>quitter</t>
   </si>
   <si>
     <t>inscrit</t>
   </si>
   <si>
-    <t>obtenir</t>
-  </si>
-  <si>
     <t>envoyer</t>
   </si>
   <si>
     <t>causé</t>
   </si>
   <si>
-    <t>retirer</t>
-  </si>
-  <si>
     <t>utilisent</t>
   </si>
   <si>
     <t>vu</t>
   </si>
   <si>
+    <t>avaient</t>
+  </si>
+  <si>
     <t>rendre</t>
   </si>
   <si>
     <t>déplacer</t>
   </si>
   <si>
+    <t>attendre</t>
+  </si>
+  <si>
     <t>maintenir</t>
   </si>
   <si>
@@ -186,9 +201,6 @@
     <t>lancé</t>
   </si>
   <si>
-    <t>contient</t>
-  </si>
-  <si>
     <t>regarder</t>
   </si>
   <si>
@@ -204,12 +216,6 @@
     <t>utilisant</t>
   </si>
   <si>
-    <t>donner</t>
-  </si>
-  <si>
-    <t>voit</t>
-  </si>
-  <si>
     <t>considérait</t>
   </si>
   <si>
@@ -228,12 +234,33 @@
     <t>agit</t>
   </si>
   <si>
+    <t>terminé</t>
+  </si>
+  <si>
+    <t>refusé</t>
+  </si>
+  <si>
     <t>indiquent</t>
   </si>
   <si>
     <t>conquis</t>
   </si>
   <si>
+    <t>donné</t>
+  </si>
+  <si>
+    <t>pris</t>
+  </si>
+  <si>
+    <t>rencontré</t>
+  </si>
+  <si>
+    <t>changer</t>
+  </si>
+  <si>
+    <t>rendues</t>
+  </si>
+  <si>
     <t>attend</t>
   </si>
   <si>
@@ -246,6 +273,9 @@
     <t>coûté</t>
   </si>
   <si>
+    <t>établir</t>
+  </si>
+  <si>
     <t>aider</t>
   </si>
   <si>
@@ -291,9 +321,6 @@
     <t>jouer</t>
   </si>
   <si>
-    <t>attendre</t>
-  </si>
-  <si>
     <t>partagé</t>
   </si>
   <si>
@@ -330,9 +357,15 @@
     <t>représentaient</t>
   </si>
   <si>
+    <t>comporte</t>
+  </si>
+  <si>
     <t>arrêter</t>
   </si>
   <si>
+    <t>battre</t>
+  </si>
+  <si>
     <t>donne</t>
   </si>
   <si>
@@ -360,6 +393,9 @@
     <t>poser</t>
   </si>
   <si>
+    <t>duré</t>
+  </si>
+  <si>
     <t>subi</t>
   </si>
   <si>
@@ -378,6 +414,9 @@
     <t>laissant</t>
   </si>
   <si>
+    <t>forcé</t>
+  </si>
+  <si>
     <t>devenir</t>
   </si>
   <si>
@@ -408,6 +447,9 @@
     <t>créé</t>
   </si>
   <si>
+    <t>modifiant</t>
+  </si>
+  <si>
     <t>situe</t>
   </si>
   <si>
@@ -435,15 +477,9 @@
     <t>utilisaient</t>
   </si>
   <si>
-    <t>terminé</t>
-  </si>
-  <si>
     <t>retrouva</t>
   </si>
   <si>
-    <t>refusé</t>
-  </si>
-  <si>
     <t>marque</t>
   </si>
   <si>
@@ -453,10 +489,7 @@
     <t>montré</t>
   </si>
   <si>
-    <t>donné</t>
-  </si>
-  <si>
-    <t>pris</t>
+    <t>concentrer</t>
   </si>
   <si>
     <t>épousa</t>
@@ -465,21 +498,21 @@
     <t>repris</t>
   </si>
   <si>
-    <t>rencontré</t>
-  </si>
-  <si>
     <t>développé</t>
   </si>
   <si>
     <t>déroulée</t>
   </si>
   <si>
-    <t>rendues</t>
+    <t>adoptent</t>
   </si>
   <si>
     <t>est</t>
   </si>
   <si>
+    <t>constitue</t>
+  </si>
+  <si>
     <t>suivent</t>
   </si>
   <si>
@@ -507,9 +540,6 @@
     <t>attaqué</t>
   </si>
   <si>
-    <t>établir</t>
-  </si>
-  <si>
     <t>remplir</t>
   </si>
   <si>
@@ -597,9 +627,6 @@
     <t>poignardé</t>
   </si>
   <si>
-    <t>avaient</t>
-  </si>
-  <si>
     <t>révélé</t>
   </si>
   <si>
@@ -747,18 +774,12 @@
     <t>serré</t>
   </si>
   <si>
-    <t>comporte</t>
-  </si>
-  <si>
     <t>ignoreraient</t>
   </si>
   <si>
     <t>enchanté</t>
   </si>
   <si>
-    <t>battre</t>
-  </si>
-  <si>
     <t>pardonner</t>
   </si>
   <si>
@@ -915,9 +936,6 @@
     <t>domine</t>
   </si>
   <si>
-    <t>duré</t>
-  </si>
-  <si>
     <t>concentrée</t>
   </si>
   <si>
@@ -1050,9 +1068,6 @@
     <t>rendu</t>
   </si>
   <si>
-    <t>forcé</t>
-  </si>
-  <si>
     <t>féliciter</t>
   </si>
   <si>
@@ -1167,9 +1182,6 @@
     <t>propagé</t>
   </si>
   <si>
-    <t>modifiant</t>
-  </si>
-  <si>
     <t>amélioré</t>
   </si>
   <si>
@@ -1662,9 +1674,6 @@
     <t>retrouver</t>
   </si>
   <si>
-    <t>concentrer</t>
-  </si>
-  <si>
     <t>lancer</t>
   </si>
   <si>
@@ -1803,9 +1812,6 @@
     <t>rejetèrent</t>
   </si>
   <si>
-    <t>changer</t>
-  </si>
-  <si>
     <t>perdrait</t>
   </si>
   <si>
@@ -1974,9 +1980,6 @@
     <t>rapportent</t>
   </si>
   <si>
-    <t>adoptent</t>
-  </si>
-  <si>
     <t>retire</t>
   </si>
   <si>
@@ -2109,6 +2112,150 @@
     <t>occuper</t>
   </si>
   <si>
+    <t>suit</t>
+  </si>
+  <si>
+    <t>fondent</t>
+  </si>
+  <si>
+    <t>inventant</t>
+  </si>
+  <si>
+    <t>développent</t>
+  </si>
+  <si>
+    <t>libérer</t>
+  </si>
+  <si>
+    <t>prend</t>
+  </si>
+  <si>
+    <t>relâchant</t>
+  </si>
+  <si>
+    <t>caressent</t>
+  </si>
+  <si>
+    <t>demander</t>
+  </si>
+  <si>
+    <t>envoie</t>
+  </si>
+  <si>
+    <t>adapter</t>
+  </si>
+  <si>
+    <t>reprennent</t>
+  </si>
+  <si>
+    <t>entretiennent</t>
+  </si>
+  <si>
+    <t>représentent</t>
+  </si>
+  <si>
+    <t>surplombant</t>
+  </si>
+  <si>
+    <t>soutenant</t>
+  </si>
+  <si>
+    <t>détruit</t>
+  </si>
+  <si>
+    <t>retirée</t>
+  </si>
+  <si>
+    <t>retiré</t>
+  </si>
+  <si>
+    <t>signifier</t>
+  </si>
+  <si>
+    <t>abandonné</t>
+  </si>
+  <si>
+    <t>faite</t>
+  </si>
+  <si>
+    <t>abandonner</t>
+  </si>
+  <si>
+    <t>résolu</t>
+  </si>
+  <si>
+    <t>concerne</t>
+  </si>
+  <si>
+    <t>prédit</t>
+  </si>
+  <si>
+    <t>rencontrés</t>
+  </si>
+  <si>
+    <t>développée</t>
+  </si>
+  <si>
+    <t>disons</t>
+  </si>
+  <si>
+    <t>effondrée</t>
+  </si>
+  <si>
+    <t>caractérisé</t>
+  </si>
+  <si>
+    <t>conçu</t>
+  </si>
+  <si>
+    <t>amené</t>
+  </si>
+  <si>
+    <t>renversa</t>
+  </si>
+  <si>
+    <t>provoqué</t>
+  </si>
+  <si>
+    <t>provoque</t>
+  </si>
+  <si>
+    <t>entraînent</t>
+  </si>
+  <si>
+    <t>relie</t>
+  </si>
+  <si>
+    <t>expropriaient</t>
+  </si>
+  <si>
+    <t>soutenaient</t>
+  </si>
+  <si>
+    <t>exécuter</t>
+  </si>
+  <si>
+    <t>enregistrer</t>
+  </si>
+  <si>
+    <t>lever</t>
+  </si>
+  <si>
+    <t>livrerait</t>
+  </si>
+  <si>
+    <t>choisirait</t>
+  </si>
+  <si>
+    <t>empêchant</t>
+  </si>
+  <si>
+    <t>déclarait</t>
+  </si>
+  <si>
+    <t>lut</t>
+  </si>
+  <si>
     <t>freq</t>
   </si>
   <si>
@@ -2232,6 +2379,9 @@
     <t>w02005029</t>
   </si>
   <si>
+    <t>w04001027</t>
+  </si>
+  <si>
     <t>Notre pays n'</t>
   </si>
   <si>
@@ -2292,6 +2442,9 @@
     <t xml:space="preserve">Pour la première fois au cours des six dernières années, le taux de chômage a chuté en dessous de 20%, et il y </t>
   </si>
   <si>
+    <t xml:space="preserve">Dans la partie inférieure, il y </t>
+  </si>
+  <si>
     <t xml:space="preserve"> pas besoin de ça, mes amis. </t>
   </si>
   <si>
@@ -2370,6 +2523,9 @@
     <t xml:space="preserve"> aussi un monument à la mémoire de Martin Luther King Jr. </t>
   </si>
   <si>
+    <t xml:space="preserve"> trois palmiers surplombant la mer, qui représentent l'amour que les gens de cette île ont pour leur terre. </t>
+  </si>
+  <si>
     <t>VERB</t>
   </si>
   <si>
@@ -2403,6 +2559,165 @@
     <t>_</t>
   </si>
   <si>
+    <t>n01025045</t>
+  </si>
+  <si>
+    <t>n01030005</t>
+  </si>
+  <si>
+    <t>n01059025</t>
+  </si>
+  <si>
+    <t>w01013083</t>
+  </si>
+  <si>
+    <t>w01020018</t>
+  </si>
+  <si>
+    <t>w01041046</t>
+  </si>
+  <si>
+    <t>w01058013</t>
+  </si>
+  <si>
+    <t>w01075036</t>
+  </si>
+  <si>
+    <t>w01088099</t>
+  </si>
+  <si>
+    <t>w01121052</t>
+  </si>
+  <si>
+    <t>n03002010</t>
+  </si>
+  <si>
+    <t>n03006028</t>
+  </si>
+  <si>
+    <t>n04008007</t>
+  </si>
+  <si>
+    <t>w02001069</t>
+  </si>
+  <si>
+    <t>w04002008</t>
+  </si>
+  <si>
+    <t>w05007004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A travers l'histoire, le marché international du cheveu a toujours </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un porte-parole de la police a indiqué à l'Associated Press qu'une « altercation » avait </t>
+  </si>
+  <si>
+    <t xml:space="preserve">« Je ne sais pas quelle a été la progression du P.I.B. pendant les mandats de Washington et Lincoln, mais les développements institutionnels initiés pendant ces deux périodes ont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il n’y a pas de défilé et il n’y en a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien que l'Islande fût sous le contrôle politique du Danemark jusque bien plus tard (1918), le danois n'a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parce qu'elles partageaient climat, géologie et accès à la mer, les civilisations méditerranéennes ont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toutefois, en Thaïlande, l'urbanisation a également </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On considère que les derniers Jeux Olympiques ont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un taux élevé de scolarisation masculine dans le secondaire ainsi que le revenu par habitant et la croissance économique ont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cependant, il y a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cependant, il n'y a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De son côté, Mme Clinton a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FO regrette que ses remarques sur la teneur du guide n'aient pas été intégrées : « Il n'y a pas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les étudiants de l’université LUISS ont été informés au cours d’une réunion qui a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La dédicace festive a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un élément soutenant cette hypothèse serait l'élevage royal des chevaux qui a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Néanmoins, si la loi anglaise avait été acceptée, les filles de Luis X, Felipe V et Carlos IV auraient </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> une connotation politique, déclare Tarlo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lieu après un « échange verbal », mais qu'aucun blessé n'avait été signalé. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> des effets durables et importants. » </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aucun. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> que peu d'influence sur la langue islandaise et n'y a laissé que peu d'emprunts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tendance à se croiser en matière de culture et d'histoire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pour effet l'augmentation drastique de certains problèmes comme l'obésité. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lieu en 393. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> des effets importants sur la réduction des risques de guerre civile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> une statistique approfondie des données démographiques qui inclut les femmes, en particulier dans leur rôle de mère. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de reconnaissance publique de son passé de résistante pendant la guerre et de son travail humanitaire qu'après la fin du régime communiste en Pologne. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, ces vingt dernières années, des relations moins reluisantes avec le continent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vraiment de concertation », dit Mme Gillard. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lieu à Rome. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lieu le 30 avril 1955. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lieu à Villa Pelucca, dans Sesto San Giovanni. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plus qu’une prétention au trône, au-dessus de leur tante Isabelle de France. </t>
+  </si>
+  <si>
+    <t>VBN</t>
+  </si>
+  <si>
+    <t>Gender=Masc|Number=Sing|Tense=Past|VerbForm=Part</t>
+  </si>
+  <si>
+    <t>SpaceAfter=No</t>
+  </si>
+  <si>
     <t>n01002058</t>
   </si>
   <si>
@@ -2538,150 +2853,9 @@
     <t xml:space="preserve"> maintenant face à de nouveaux défis. </t>
   </si>
   <si>
-    <t>VBN</t>
-  </si>
-  <si>
-    <t>Gender=Masc|Number=Sing|Tense=Past|VerbForm=Part</t>
-  </si>
-  <si>
     <t>acl</t>
   </si>
   <si>
-    <t>SpaceAfter=No</t>
-  </si>
-  <si>
-    <t>n01025045</t>
-  </si>
-  <si>
-    <t>n01030005</t>
-  </si>
-  <si>
-    <t>n01059025</t>
-  </si>
-  <si>
-    <t>w01013083</t>
-  </si>
-  <si>
-    <t>w01020018</t>
-  </si>
-  <si>
-    <t>w01041046</t>
-  </si>
-  <si>
-    <t>w01058013</t>
-  </si>
-  <si>
-    <t>w01075036</t>
-  </si>
-  <si>
-    <t>w01088099</t>
-  </si>
-  <si>
-    <t>w01121052</t>
-  </si>
-  <si>
-    <t>n03002010</t>
-  </si>
-  <si>
-    <t>n03006028</t>
-  </si>
-  <si>
-    <t>n04008007</t>
-  </si>
-  <si>
-    <t>w02001069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A travers l'histoire, le marché international du cheveu a toujours </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un porte-parole de la police a indiqué à l'Associated Press qu'une « altercation » avait </t>
-  </si>
-  <si>
-    <t xml:space="preserve">« Je ne sais pas quelle a été la progression du P.I.B. pendant les mandats de Washington et Lincoln, mais les développements institutionnels initiés pendant ces deux périodes ont </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il n’y a pas de défilé et il n’y en a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bien que l'Islande fût sous le contrôle politique du Danemark jusque bien plus tard (1918), le danois n'a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parce qu'elles partageaient climat, géologie et accès à la mer, les civilisations méditerranéennes ont </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toutefois, en Thaïlande, l'urbanisation a également </t>
-  </si>
-  <si>
-    <t xml:space="preserve">On considère que les derniers Jeux Olympiques ont </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un taux élevé de scolarisation masculine dans le secondaire ainsi que le revenu par habitant et la croissance économique ont </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cependant, il y a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cependant, il n'y a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De son côté, Mme Clinton a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FO regrette que ses remarques sur la teneur du guide n'aient pas été intégrées : « Il n'y a pas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les étudiants de l’université LUISS ont été informés au cours d’une réunion qui a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La dédicace festive a </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> une connotation politique, déclare Tarlo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lieu après un « échange verbal », mais qu'aucun blessé n'avait été signalé. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> des effets durables et importants. » </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aucun. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> que peu d'influence sur la langue islandaise et n'y a laissé que peu d'emprunts. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tendance à se croiser en matière de culture et d'histoire. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pour effet l'augmentation drastique de certains problèmes comme l'obésité. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lieu en 393. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> des effets importants sur la réduction des risques de guerre civile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> une statistique approfondie des données démographiques qui inclut les femmes, en particulier dans leur rôle de mère. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> de reconnaissance publique de son passé de résistante pendant la guerre et de son travail humanitaire qu'après la fin du régime communiste en Pologne. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">, ces vingt dernières années, des relations moins reluisantes avec le continent. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vraiment de concertation », dit Mme Gillard. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lieu à Rome. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lieu le 30 avril 1955. </t>
-  </si>
-  <si>
     <t>n01011011</t>
   </si>
   <si>
@@ -2826,6 +3000,12 @@
     <t>w03002048</t>
   </si>
   <si>
+    <t>w03009044</t>
+  </si>
+  <si>
+    <t>w05005086</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ce qui avait commencé comme une écographie de routine s'est compliqué quand la future mère, Margaret Boemer, de Plano au Texas, a appris que le fœtus </t>
   </si>
   <si>
@@ -2856,6 +3036,12 @@
     <t xml:space="preserve">Dans le début des années 2000, il y </t>
   </si>
   <si>
+    <t xml:space="preserve">Bien que n°1 mondiale de l'équipement et du textile, l'entreprise allemande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'expédition était dirigée par le général Joseph Burgoyne qui </t>
+  </si>
+  <si>
     <t xml:space="preserve"> une maladie rare qui allait nécessiter une intervention. </t>
   </si>
   <si>
@@ -2886,6 +3072,12 @@
     <t xml:space="preserve"> 5 médecins pour 100 000 habitants. </t>
   </si>
   <si>
+    <t xml:space="preserve"> des difficultés financières. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l'intention de parvenir à Albany. </t>
+  </si>
+  <si>
     <t>Mood=Ind|Number=Sing|Person=3|Tense=Imp|VerbForm=Fin</t>
   </si>
   <si>
@@ -2925,6 +3117,9 @@
     <t xml:space="preserve">L’état offrira 500 euros à ceux qui </t>
   </si>
   <si>
+    <t xml:space="preserve">Dans la partie inférieure, il y a trois palmiers surplombant la mer, qui représentent l'amour que les gens de cette île </t>
+  </si>
+  <si>
     <t xml:space="preserve"> la moyenne nationale en CM1 et sont au-dessus de la moyenne nationale en 4ème. </t>
   </si>
   <si>
@@ -2946,6 +3141,9 @@
     <t xml:space="preserve"> l’âge, à dépenser avant le 31 décembre 2017. </t>
   </si>
   <si>
+    <t xml:space="preserve"> pour leur terre. </t>
+  </si>
+  <si>
     <t>Mood=Ind|Number=Plur|Person=3|Tense=Pres|VerbForm=Fin</t>
   </si>
   <si>
@@ -3012,6 +3210,63 @@
     <t xml:space="preserve"> trop de compréhension pour la direction d’Erdogan. </t>
   </si>
   <si>
+    <t>n01024016</t>
+  </si>
+  <si>
+    <t>w01069007</t>
+  </si>
+  <si>
+    <t>w01129019</t>
+  </si>
+  <si>
+    <t>w02009087</t>
+  </si>
+  <si>
+    <t>w02014030</t>
+  </si>
+  <si>
+    <t>w05010023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le RHS a compilé les commentaires des instituteurs et des écoliers ayant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 1519, il devint souverain de l'empire de Habsbourg et </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La voiture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Roi ne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Après le Compromis austro-hongrois, l’Empereur et roi François-Joseph 1er </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pompée </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> part à l'expérience. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le titre de Saint-Empereur en 1530. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> feu et Kenseth s'éloigna. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pas de précautions particulières au cours de sa fuite et il fut reconnu plusieurs fois lors de ses passages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grand soin de traiter équitablement ses deux monarchies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le commandement de deux légions à Capoue et commença à lever des impôts illégaux, un acte qui, comme on pouvait s'y attendre, a profité des césariens qui étaient en sa faveur. </t>
+  </si>
+  <si>
+    <t>Mood=Ind|Number=Sing|Person=3|Tense=Past|VerbForm=Fin</t>
+  </si>
+  <si>
     <t>n01030006</t>
   </si>
   <si>
@@ -3066,9 +3321,6 @@
     <t xml:space="preserve"> beaucoup de critiques pour avoir évité et pour ne pas avoir répondu ouvertement aux médias après la décision du tribunal concernant le Brexit. </t>
   </si>
   <si>
-    <t>Mood=Ind|Number=Sing|Person=3|Tense=Past|VerbForm=Fin</t>
-  </si>
-  <si>
     <t>n01038021</t>
   </si>
   <si>
@@ -3121,54 +3373,6 @@
   </si>
   <si>
     <t xml:space="preserve"> ici de vastes ruines. </t>
-  </si>
-  <si>
-    <t>n01002017</t>
-  </si>
-  <si>
-    <t>n01092025</t>
-  </si>
-  <si>
-    <t>w01089017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mais, en rupture avec sa rhétorique précédente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sur ce sujet, un point de l’ordre de jour au Maroc sera celui </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La plupart des informations </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour éviter de se retrouver avec un dilemme similaire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">May a reçu beaucoup de critiques pour avoir évité et pour ne pas avoir répondu ouvertement aux médias après la décision du tribunal </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la réduction de l'immigration, le candidat du parti républicain a annonçé qu'en tant que président, il autoriserait un « nombre considérable » d'immigrants légaux fondé sur un « principe du mérite ». </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> le samedi du milieu de l’événement, lorsque les pays développés pourront interroger toute autre partie sur leurs projets et leurs ambitions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cette époque proviennent des lieux de sépulture et des objets funéraires trouvés dans ces lieux. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la princesse Jasmine, les cinéastes ont finalement décidé d'avoir la princesse entièrement animée dans un seul studio. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> le Brexit. </t>
-  </si>
-  <si>
-    <t>concerner</t>
-  </si>
-  <si>
-    <t>VBG</t>
-  </si>
-  <si>
-    <t>Tense=Pres|VerbForm=Part</t>
   </si>
 </sst>
 </file>
@@ -3526,7 +3730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B692"/>
+  <dimension ref="A1:B741"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3540,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3548,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>691</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3556,7 +3760,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3564,7 +3768,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3588,7 +3792,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3596,7 +3800,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3628,7 +3832,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3780,7 +3984,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3788,7 +3992,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3796,7 +4000,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3804,7 +4008,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3812,7 +4016,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3820,7 +4024,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4084,7 +4288,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4092,7 +4296,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4100,7 +4304,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4108,7 +4312,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4116,7 +4320,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4124,7 +4328,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4132,7 +4336,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4140,7 +4344,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4148,7 +4352,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4724,7 +4928,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4732,7 +4936,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4740,7 +4944,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4748,7 +4952,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4756,7 +4960,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4764,7 +4968,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4772,7 +4976,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4780,7 +4984,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -4788,7 +4992,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4796,7 +5000,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -4804,7 +5008,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -9060,6 +9264,398 @@
         <v>690</v>
       </c>
       <c r="B692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B741">
         <v>1</v>
       </c>
     </row>
@@ -9081,10 +9677,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9092,13 +9688,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>0.011090573012939</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -9108,7 +9704,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9116,46 +9712,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>704</v>
+        <v>753</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -9163,16 +9759,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>920</v>
+        <v>978</v>
       </c>
       <c r="C2" t="s">
-        <v>930</v>
+        <v>990</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>940</v>
+        <v>1002</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -9184,25 +9780,25 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="J2" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K2" t="s">
-        <v>950</v>
+        <v>1014</v>
       </c>
       <c r="L2">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>786</v>
+        <v>838</v>
       </c>
       <c r="N2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -9210,16 +9806,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>921</v>
+        <v>979</v>
       </c>
       <c r="C3" t="s">
-        <v>931</v>
+        <v>991</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>941</v>
+        <v>1003</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -9231,25 +9827,25 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J3" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K3" t="s">
-        <v>950</v>
+        <v>1014</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -9257,16 +9853,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>922</v>
+        <v>980</v>
       </c>
       <c r="C4" t="s">
-        <v>932</v>
+        <v>992</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>942</v>
+        <v>1004</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -9278,25 +9874,25 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J4" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K4" t="s">
-        <v>950</v>
+        <v>1014</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -9304,16 +9900,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>923</v>
+        <v>981</v>
       </c>
       <c r="C5" t="s">
-        <v>933</v>
+        <v>993</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>943</v>
+        <v>1005</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -9325,25 +9921,25 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J5" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K5" t="s">
-        <v>950</v>
+        <v>1014</v>
       </c>
       <c r="L5">
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>787</v>
+        <v>839</v>
       </c>
       <c r="N5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -9351,16 +9947,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>924</v>
+        <v>982</v>
       </c>
       <c r="C6" t="s">
-        <v>934</v>
+        <v>994</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>944</v>
+        <v>1006</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -9372,25 +9968,25 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J6" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K6" t="s">
-        <v>950</v>
+        <v>1014</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -9398,16 +9994,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>925</v>
+        <v>983</v>
       </c>
       <c r="C7" t="s">
-        <v>935</v>
+        <v>995</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>945</v>
+        <v>1007</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -9419,25 +10015,25 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J7" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K7" t="s">
-        <v>950</v>
+        <v>1014</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>783</v>
+        <v>835</v>
       </c>
       <c r="N7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -9445,16 +10041,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>926</v>
+        <v>984</v>
       </c>
       <c r="C8" t="s">
-        <v>936</v>
+        <v>996</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>946</v>
+        <v>1008</v>
       </c>
       <c r="F8">
         <v>41</v>
@@ -9466,25 +10062,25 @@
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J8" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K8" t="s">
-        <v>950</v>
+        <v>1014</v>
       </c>
       <c r="L8">
         <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>784</v>
+        <v>836</v>
       </c>
       <c r="N8" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O8" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -9492,16 +10088,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>927</v>
+        <v>985</v>
       </c>
       <c r="C9" t="s">
-        <v>937</v>
+        <v>997</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>947</v>
+        <v>1009</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -9513,25 +10109,25 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J9" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K9" t="s">
-        <v>950</v>
+        <v>1014</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N9" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O9" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -9539,16 +10135,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="C10" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>948</v>
+        <v>1010</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -9560,25 +10156,25 @@
         <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J10" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K10" t="s">
-        <v>950</v>
+        <v>1014</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>919</v>
+        <v>977</v>
       </c>
       <c r="N10" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O10" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -9586,16 +10182,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="C11" t="s">
-        <v>939</v>
+        <v>999</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>949</v>
+        <v>1011</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -9607,25 +10203,119 @@
         <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J11" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K11" t="s">
-        <v>950</v>
+        <v>1014</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N11" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O11" t="s">
-        <v>788</v>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>988</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>830</v>
+      </c>
+      <c r="J12" t="s">
+        <v>832</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>834</v>
+      </c>
+      <c r="N12" t="s">
+        <v>840</v>
+      </c>
+      <c r="O12" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>989</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>830</v>
+      </c>
+      <c r="J13" t="s">
+        <v>832</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>835</v>
+      </c>
+      <c r="N13" t="s">
+        <v>840</v>
+      </c>
+      <c r="O13" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -9646,10 +10336,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9657,13 +10347,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>0.007</v>
+        <v>0.007393715341959334</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -9673,7 +10363,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9681,46 +10371,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>704</v>
+        <v>753</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -9728,16 +10418,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>951</v>
+        <v>1015</v>
       </c>
       <c r="C2" t="s">
-        <v>957</v>
+        <v>1021</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>963</v>
+        <v>1028</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -9749,25 +10439,25 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J2" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K2" t="s">
-        <v>970</v>
+        <v>1036</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -9775,16 +10465,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>952</v>
+        <v>1016</v>
       </c>
       <c r="C3" t="s">
-        <v>958</v>
+        <v>1022</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>964</v>
+        <v>1029</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -9796,25 +10486,25 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J3" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K3" t="s">
-        <v>970</v>
+        <v>1036</v>
       </c>
       <c r="L3">
         <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>787</v>
+        <v>839</v>
       </c>
       <c r="N3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -9822,16 +10512,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>952</v>
+        <v>1016</v>
       </c>
       <c r="C4" t="s">
-        <v>959</v>
+        <v>1023</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>965</v>
+        <v>1030</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -9843,25 +10533,25 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J4" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K4" t="s">
-        <v>970</v>
+        <v>1036</v>
       </c>
       <c r="L4">
         <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>787</v>
+        <v>839</v>
       </c>
       <c r="N4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -9869,16 +10559,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>953</v>
+        <v>1017</v>
       </c>
       <c r="C5" t="s">
-        <v>960</v>
+        <v>1024</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>966</v>
+        <v>1031</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -9890,25 +10580,25 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J5" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K5" t="s">
-        <v>970</v>
+        <v>1036</v>
       </c>
       <c r="L5">
         <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>783</v>
+        <v>835</v>
       </c>
       <c r="N5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -9916,16 +10606,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>954</v>
+        <v>1018</v>
       </c>
       <c r="C6" t="s">
-        <v>957</v>
+        <v>1021</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>967</v>
+        <v>1032</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -9937,25 +10627,25 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J6" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K6" t="s">
-        <v>970</v>
+        <v>1036</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -9963,16 +10653,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>955</v>
+        <v>1019</v>
       </c>
       <c r="C7" t="s">
-        <v>961</v>
+        <v>1025</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>968</v>
+        <v>1033</v>
       </c>
       <c r="F7">
         <v>34</v>
@@ -9984,25 +10674,25 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J7" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K7" t="s">
-        <v>970</v>
+        <v>1036</v>
       </c>
       <c r="L7">
         <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>784</v>
+        <v>836</v>
       </c>
       <c r="N7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -10010,16 +10700,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>956</v>
+        <v>1020</v>
       </c>
       <c r="C8" t="s">
-        <v>962</v>
+        <v>1026</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>969</v>
+        <v>1034</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -10031,25 +10721,72 @@
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J8" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K8" t="s">
-        <v>970</v>
+        <v>1036</v>
       </c>
       <c r="L8">
         <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>783</v>
+        <v>835</v>
       </c>
       <c r="N8" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O8" t="s">
-        <v>788</v>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>781</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>830</v>
+      </c>
+      <c r="J9" t="s">
+        <v>832</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L9">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>835</v>
+      </c>
+      <c r="N9" t="s">
+        <v>840</v>
+      </c>
+      <c r="O9" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -10070,10 +10807,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10084,7 +10821,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.007</v>
+        <v>0.006469500924214418</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -10105,46 +10842,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>704</v>
+        <v>753</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -10152,16 +10889,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>971</v>
+        <v>1037</v>
       </c>
       <c r="C2" t="s">
-        <v>978</v>
+        <v>1044</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>985</v>
+        <v>1051</v>
       </c>
       <c r="F2">
         <v>26</v>
@@ -10173,25 +10910,25 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J2" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K2" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L2">
         <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -10199,16 +10936,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>972</v>
+        <v>1038</v>
       </c>
       <c r="C3" t="s">
-        <v>979</v>
+        <v>1045</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>986</v>
+        <v>1052</v>
       </c>
       <c r="F3">
         <v>14</v>
@@ -10220,25 +10957,25 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J3" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K3" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L3">
         <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -10246,16 +10983,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>973</v>
+        <v>1039</v>
       </c>
       <c r="C4" t="s">
-        <v>980</v>
+        <v>1046</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>987</v>
+        <v>1053</v>
       </c>
       <c r="F4">
         <v>11</v>
@@ -10267,25 +11004,25 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J4" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K4" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L4">
         <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -10293,16 +11030,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>974</v>
+        <v>1040</v>
       </c>
       <c r="C5" t="s">
-        <v>981</v>
+        <v>1047</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>988</v>
+        <v>1054</v>
       </c>
       <c r="F5">
         <v>19</v>
@@ -10314,25 +11051,25 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J5" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K5" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L5">
         <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -10340,16 +11077,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>975</v>
+        <v>1041</v>
       </c>
       <c r="C6" t="s">
-        <v>982</v>
+        <v>1048</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>989</v>
+        <v>1055</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -10361,25 +11098,25 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J6" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K6" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L6">
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -10387,16 +11124,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>976</v>
+        <v>1042</v>
       </c>
       <c r="C7" t="s">
-        <v>983</v>
+        <v>1049</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>990</v>
+        <v>1056</v>
       </c>
       <c r="F7">
         <v>21</v>
@@ -10408,25 +11145,25 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J7" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K7" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L7">
         <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -10434,16 +11171,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>977</v>
+        <v>1043</v>
       </c>
       <c r="C8" t="s">
-        <v>984</v>
+        <v>1050</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>991</v>
+        <v>1057</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -10455,25 +11192,25 @@
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J8" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K8" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L8">
         <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N8" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O8" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -10494,10 +11231,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10508,7 +11245,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.006</v>
+        <v>0.005545286506469501</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -10529,46 +11266,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>704</v>
+        <v>753</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -10576,46 +11313,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>992</v>
+        <v>1058</v>
       </c>
       <c r="C2" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>1004</v>
+        <v>1070</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J2" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K2" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>783</v>
+        <v>939</v>
       </c>
       <c r="N2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -10623,46 +11360,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>993</v>
+        <v>1059</v>
       </c>
       <c r="C3" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1005</v>
+        <v>1071</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K3" t="s">
-        <v>835</v>
+        <v>1076</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>782</v>
+        <v>836</v>
       </c>
       <c r="N3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -10670,46 +11407,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>994</v>
+        <v>1060</v>
       </c>
       <c r="C4" t="s">
-        <v>1000</v>
+        <v>1066</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>1006</v>
+        <v>1072</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K4" t="s">
-        <v>835</v>
+        <v>1076</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -10717,46 +11454,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>995</v>
+        <v>1061</v>
       </c>
       <c r="C5" t="s">
-        <v>1001</v>
+        <v>1067</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>1007</v>
+        <v>1073</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J5" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K5" t="s">
-        <v>1010</v>
+        <v>1076</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -10764,46 +11501,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>996</v>
+        <v>1062</v>
       </c>
       <c r="C6" t="s">
-        <v>1002</v>
+        <v>1068</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>1008</v>
+        <v>1074</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K6" t="s">
-        <v>835</v>
+        <v>1076</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -10811,46 +11548,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>997</v>
+        <v>1063</v>
       </c>
       <c r="C7" t="s">
-        <v>1003</v>
+        <v>1069</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>1009</v>
+        <v>1075</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J7" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K7" t="s">
-        <v>835</v>
+        <v>1076</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -10871,10 +11608,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10885,7 +11622,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.006</v>
+        <v>0.005545286506469501</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -10906,46 +11643,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>704</v>
+        <v>753</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -10953,46 +11690,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1011</v>
+        <v>1077</v>
       </c>
       <c r="C2" t="s">
-        <v>1017</v>
+        <v>1083</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>1023</v>
+        <v>1089</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J2" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="K2" t="s">
-        <v>916</v>
+        <v>892</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>917</v>
+        <v>835</v>
       </c>
       <c r="N2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -11000,46 +11737,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1012</v>
+        <v>1078</v>
       </c>
       <c r="C3" t="s">
-        <v>1018</v>
+        <v>1084</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>1024</v>
+        <v>1090</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J3" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="K3" t="s">
-        <v>916</v>
+        <v>892</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>917</v>
+        <v>834</v>
       </c>
       <c r="N3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -11047,46 +11784,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1013</v>
+        <v>1079</v>
       </c>
       <c r="C4" t="s">
-        <v>1019</v>
+        <v>1085</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>1025</v>
+        <v>1091</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J4" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="K4" t="s">
-        <v>916</v>
+        <v>892</v>
       </c>
       <c r="L4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>917</v>
+        <v>834</v>
       </c>
       <c r="N4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -11094,46 +11831,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1014</v>
+        <v>1080</v>
       </c>
       <c r="C5" t="s">
-        <v>1020</v>
+        <v>1086</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>1026</v>
+        <v>1092</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J5" t="s">
-        <v>915</v>
+        <v>832</v>
       </c>
       <c r="K5" t="s">
-        <v>916</v>
+        <v>1076</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>917</v>
+        <v>834</v>
       </c>
       <c r="N5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -11141,46 +11878,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1015</v>
+        <v>1081</v>
       </c>
       <c r="C6" t="s">
-        <v>1021</v>
+        <v>1087</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>1027</v>
+        <v>1093</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J6" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="K6" t="s">
-        <v>916</v>
+        <v>892</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>917</v>
+        <v>834</v>
       </c>
       <c r="N6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -11188,46 +11925,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1016</v>
+        <v>1082</v>
       </c>
       <c r="C7" t="s">
-        <v>1022</v>
+        <v>1088</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>1028</v>
+        <v>1094</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J7" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="K7" t="s">
-        <v>916</v>
+        <v>892</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>917</v>
+        <v>834</v>
       </c>
       <c r="N7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -11248,10 +11985,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11259,13 +11996,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>0.026</v>
+        <v>0.02495378927911275</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -11286,10 +12023,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11297,13 +12034,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0.005</v>
+        <v>0.005545286506469501</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -11313,7 +12050,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11321,46 +12058,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>704</v>
+        <v>753</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -11368,46 +12105,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1029</v>
+        <v>1095</v>
       </c>
       <c r="C2" t="s">
-        <v>1032</v>
+        <v>1101</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>1037</v>
+        <v>1107</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>1042</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J2" t="s">
-        <v>1043</v>
+        <v>973</v>
       </c>
       <c r="K2" t="s">
-        <v>1044</v>
+        <v>974</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>836</v>
+        <v>975</v>
       </c>
       <c r="N2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -11415,46 +12152,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1030</v>
+        <v>1096</v>
       </c>
       <c r="C3" t="s">
-        <v>1033</v>
+        <v>1102</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>1038</v>
+        <v>1108</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>1042</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J3" t="s">
-        <v>1043</v>
+        <v>973</v>
       </c>
       <c r="K3" t="s">
-        <v>1044</v>
+        <v>974</v>
       </c>
       <c r="L3">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>785</v>
+        <v>975</v>
       </c>
       <c r="N3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -11462,46 +12199,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1031</v>
+        <v>1097</v>
       </c>
       <c r="C4" t="s">
-        <v>1034</v>
+        <v>1103</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>1039</v>
+        <v>1109</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>1042</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J4" t="s">
-        <v>1043</v>
+        <v>973</v>
       </c>
       <c r="K4" t="s">
-        <v>1044</v>
+        <v>974</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>836</v>
+        <v>975</v>
       </c>
       <c r="N4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -11509,46 +12246,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>976</v>
+        <v>1098</v>
       </c>
       <c r="C5" t="s">
-        <v>1035</v>
+        <v>1104</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>1040</v>
+        <v>1110</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>1042</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J5" t="s">
-        <v>1043</v>
+        <v>973</v>
       </c>
       <c r="K5" t="s">
-        <v>1044</v>
+        <v>974</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>836</v>
+        <v>975</v>
       </c>
       <c r="N5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -11556,46 +12293,93 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>997</v>
+        <v>1099</v>
       </c>
       <c r="C6" t="s">
-        <v>1036</v>
+        <v>1105</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>1041</v>
+        <v>1111</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>1042</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J6" t="s">
-        <v>1043</v>
+        <v>973</v>
       </c>
       <c r="K6" t="s">
-        <v>1044</v>
+        <v>974</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>836</v>
+        <v>975</v>
       </c>
       <c r="N6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O6" t="s">
-        <v>788</v>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>830</v>
+      </c>
+      <c r="J7" t="s">
+        <v>973</v>
+      </c>
+      <c r="K7" t="s">
+        <v>974</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>975</v>
+      </c>
+      <c r="N7" t="s">
+        <v>840</v>
+      </c>
+      <c r="O7" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -11605,7 +12389,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11613,46 +12397,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>704</v>
+        <v>753</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -11660,16 +12444,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>707</v>
+        <v>756</v>
       </c>
       <c r="C2" t="s">
-        <v>732</v>
+        <v>782</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>752</v>
+        <v>803</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -11681,25 +12465,25 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J2" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K2" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -11707,16 +12491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>708</v>
+        <v>757</v>
       </c>
       <c r="C3" t="s">
-        <v>733</v>
+        <v>783</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>753</v>
+        <v>804</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -11728,25 +12512,25 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J3" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K3" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>783</v>
+        <v>835</v>
       </c>
       <c r="N3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -11754,16 +12538,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>709</v>
+        <v>758</v>
       </c>
       <c r="C4" t="s">
-        <v>734</v>
+        <v>784</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>754</v>
+        <v>805</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -11775,25 +12559,25 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J4" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K4" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -11801,16 +12585,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>710</v>
+        <v>759</v>
       </c>
       <c r="C5" t="s">
-        <v>734</v>
+        <v>784</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>755</v>
+        <v>806</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -11822,25 +12606,25 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J5" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K5" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -11848,16 +12632,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>711</v>
+        <v>760</v>
       </c>
       <c r="C6" t="s">
-        <v>735</v>
+        <v>785</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>756</v>
+        <v>807</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -11869,25 +12653,25 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J6" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K6" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -11895,16 +12679,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>712</v>
+        <v>761</v>
       </c>
       <c r="C7" t="s">
-        <v>734</v>
+        <v>784</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>757</v>
+        <v>808</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -11916,25 +12700,25 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J7" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K7" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -11942,16 +12726,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>713</v>
+        <v>762</v>
       </c>
       <c r="C8" t="s">
-        <v>736</v>
+        <v>786</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>758</v>
+        <v>809</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -11963,25 +12747,25 @@
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J8" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K8" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N8" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O8" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -11989,16 +12773,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>713</v>
+        <v>762</v>
       </c>
       <c r="C9" t="s">
-        <v>734</v>
+        <v>784</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>759</v>
+        <v>810</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -12010,25 +12794,25 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J9" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K9" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N9" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O9" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -12036,16 +12820,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>714</v>
+        <v>763</v>
       </c>
       <c r="C10" t="s">
-        <v>737</v>
+        <v>787</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>760</v>
+        <v>811</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -12057,25 +12841,25 @@
         <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J10" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K10" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N10" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O10" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -12083,16 +12867,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>715</v>
+        <v>764</v>
       </c>
       <c r="C11" t="s">
-        <v>738</v>
+        <v>788</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>761</v>
+        <v>812</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -12104,25 +12888,25 @@
         <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J11" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K11" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>784</v>
+        <v>836</v>
       </c>
       <c r="N11" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O11" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -12130,16 +12914,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>716</v>
+        <v>765</v>
       </c>
       <c r="C12" t="s">
-        <v>739</v>
+        <v>789</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>762</v>
+        <v>813</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -12151,25 +12935,25 @@
         <v>8</v>
       </c>
       <c r="I12" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J12" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K12" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>785</v>
+        <v>837</v>
       </c>
       <c r="N12" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O12" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -12177,16 +12961,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>717</v>
+        <v>766</v>
       </c>
       <c r="C13" t="s">
-        <v>740</v>
+        <v>790</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>763</v>
+        <v>814</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -12198,25 +12982,25 @@
         <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="J13" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K13" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L13">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>786</v>
+        <v>838</v>
       </c>
       <c r="N13" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O13" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -12224,16 +13008,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>718</v>
+        <v>767</v>
       </c>
       <c r="C14" t="s">
-        <v>741</v>
+        <v>791</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>764</v>
+        <v>815</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -12245,25 +13029,25 @@
         <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J14" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K14" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N14" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O14" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -12271,16 +13055,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>719</v>
+        <v>768</v>
       </c>
       <c r="C15" t="s">
-        <v>742</v>
+        <v>792</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>765</v>
+        <v>816</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -12292,25 +13076,25 @@
         <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J15" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K15" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N15" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O15" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -12318,16 +13102,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>720</v>
+        <v>769</v>
       </c>
       <c r="C16" t="s">
-        <v>743</v>
+        <v>793</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>766</v>
+        <v>817</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -12339,25 +13123,25 @@
         <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J16" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K16" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N16" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O16" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -12365,16 +13149,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>721</v>
+        <v>770</v>
       </c>
       <c r="C17" t="s">
-        <v>734</v>
+        <v>784</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>767</v>
+        <v>818</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -12386,25 +13170,25 @@
         <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J17" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K17" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L17">
         <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>787</v>
+        <v>839</v>
       </c>
       <c r="N17" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O17" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -12412,16 +13196,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>722</v>
+        <v>771</v>
       </c>
       <c r="C18" t="s">
-        <v>744</v>
+        <v>794</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>768</v>
+        <v>819</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -12433,25 +13217,25 @@
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J18" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K18" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N18" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O18" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -12459,16 +13243,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>723</v>
+        <v>772</v>
       </c>
       <c r="C19" t="s">
-        <v>734</v>
+        <v>784</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>769</v>
+        <v>820</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -12480,25 +13264,25 @@
         <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J19" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K19" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N19" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O19" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -12506,16 +13290,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>724</v>
+        <v>773</v>
       </c>
       <c r="C20" t="s">
-        <v>745</v>
+        <v>795</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>770</v>
+        <v>821</v>
       </c>
       <c r="F20">
         <v>36</v>
@@ -12527,25 +13311,25 @@
         <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J20" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K20" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L20">
         <v>27</v>
       </c>
       <c r="M20" t="s">
-        <v>783</v>
+        <v>835</v>
       </c>
       <c r="N20" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O20" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -12553,16 +13337,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>725</v>
+        <v>774</v>
       </c>
       <c r="C21" t="s">
-        <v>746</v>
+        <v>796</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>771</v>
+        <v>822</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -12574,25 +13358,25 @@
         <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J21" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K21" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N21" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O21" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -12600,16 +13384,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>726</v>
+        <v>775</v>
       </c>
       <c r="C22" t="s">
-        <v>747</v>
+        <v>797</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>772</v>
+        <v>823</v>
       </c>
       <c r="F22">
         <v>9</v>
@@ -12621,25 +13405,25 @@
         <v>8</v>
       </c>
       <c r="I22" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J22" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K22" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L22">
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>784</v>
+        <v>836</v>
       </c>
       <c r="N22" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O22" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -12647,16 +13431,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>727</v>
+        <v>776</v>
       </c>
       <c r="C23" t="s">
-        <v>748</v>
+        <v>798</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>773</v>
+        <v>824</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -12668,25 +13452,25 @@
         <v>8</v>
       </c>
       <c r="I23" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J23" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K23" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N23" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O23" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -12694,16 +13478,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>728</v>
+        <v>777</v>
       </c>
       <c r="C24" t="s">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>774</v>
+        <v>825</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -12715,25 +13499,25 @@
         <v>8</v>
       </c>
       <c r="I24" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J24" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K24" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N24" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O24" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -12741,16 +13525,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>729</v>
+        <v>778</v>
       </c>
       <c r="C25" t="s">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="F25">
         <v>9</v>
@@ -12762,25 +13546,25 @@
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J25" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K25" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L25">
         <v>5</v>
       </c>
       <c r="M25" t="s">
-        <v>785</v>
+        <v>837</v>
       </c>
       <c r="N25" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O25" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -12788,16 +13572,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>730</v>
+        <v>779</v>
       </c>
       <c r="C26" t="s">
-        <v>751</v>
+        <v>801</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>776</v>
+        <v>827</v>
       </c>
       <c r="F26">
         <v>18</v>
@@ -12809,25 +13593,25 @@
         <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="J26" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K26" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L26">
         <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>786</v>
+        <v>838</v>
       </c>
       <c r="N26" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O26" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -12835,16 +13619,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>731</v>
+        <v>780</v>
       </c>
       <c r="C27" t="s">
-        <v>734</v>
+        <v>784</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>777</v>
+        <v>828</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -12856,25 +13640,72 @@
         <v>8</v>
       </c>
       <c r="I27" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J27" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="K27" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N27" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O27" t="s">
-        <v>788</v>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>781</v>
+      </c>
+      <c r="C28" t="s">
+        <v>802</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>829</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>830</v>
+      </c>
+      <c r="J28" t="s">
+        <v>832</v>
+      </c>
+      <c r="K28" t="s">
+        <v>833</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>834</v>
+      </c>
+      <c r="N28" t="s">
+        <v>840</v>
+      </c>
+      <c r="O28" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -12895,10 +13726,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12906,13 +13737,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>0.015</v>
+        <v>0.01571164510166359</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -12922,7 +13753,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12930,46 +13761,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>704</v>
+        <v>753</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -12977,46 +13808,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>789</v>
+        <v>841</v>
       </c>
       <c r="C2" t="s">
-        <v>804</v>
+        <v>857</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>819</v>
+        <v>874</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J2" t="s">
-        <v>780</v>
+        <v>891</v>
       </c>
       <c r="K2" t="s">
-        <v>781</v>
+        <v>892</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>783</v>
+        <v>839</v>
       </c>
       <c r="N2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O2" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -13024,46 +13855,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>790</v>
+        <v>842</v>
       </c>
       <c r="C3" t="s">
-        <v>805</v>
+        <v>858</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>820</v>
+        <v>875</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J3" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K3" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>782</v>
+        <v>837</v>
       </c>
       <c r="N3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -13071,46 +13902,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>791</v>
+        <v>843</v>
       </c>
       <c r="C4" t="s">
-        <v>806</v>
+        <v>859</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>821</v>
+        <v>876</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J4" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K4" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>782</v>
+        <v>836</v>
       </c>
       <c r="N4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -13118,46 +13949,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
       <c r="C5" t="s">
-        <v>807</v>
+        <v>860</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>822</v>
+        <v>877</v>
       </c>
       <c r="F5">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J5" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K5" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M5" t="s">
         <v>836</v>
       </c>
       <c r="N5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -13165,46 +13996,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>793</v>
+        <v>844</v>
       </c>
       <c r="C6" t="s">
-        <v>808</v>
+        <v>861</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>823</v>
+        <v>878</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J6" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K6" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -13212,46 +14043,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>794</v>
+        <v>845</v>
       </c>
       <c r="C7" t="s">
-        <v>809</v>
+        <v>862</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>824</v>
+        <v>879</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J7" t="s">
+        <v>891</v>
+      </c>
+      <c r="K7" t="s">
+        <v>892</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>834</v>
       </c>
-      <c r="K7" t="s">
-        <v>835</v>
-      </c>
-      <c r="L7">
-        <v>12</v>
-      </c>
-      <c r="M7" t="s">
-        <v>787</v>
-      </c>
       <c r="N7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -13259,46 +14090,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>795</v>
+        <v>846</v>
       </c>
       <c r="C8" t="s">
-        <v>810</v>
+        <v>863</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>825</v>
+        <v>880</v>
       </c>
       <c r="F8">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J8" t="s">
+        <v>891</v>
+      </c>
+      <c r="K8" t="s">
+        <v>892</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>834</v>
       </c>
-      <c r="K8" t="s">
-        <v>835</v>
-      </c>
-      <c r="L8">
-        <v>13</v>
-      </c>
-      <c r="M8" t="s">
-        <v>784</v>
-      </c>
       <c r="N8" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O8" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -13306,46 +14137,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>796</v>
+        <v>847</v>
       </c>
       <c r="C9" t="s">
-        <v>811</v>
+        <v>864</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>826</v>
+        <v>881</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J9" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K9" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>787</v>
+        <v>837</v>
       </c>
       <c r="N9" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O9" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -13353,46 +14184,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>797</v>
+        <v>848</v>
       </c>
       <c r="C10" t="s">
-        <v>812</v>
+        <v>865</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>827</v>
+        <v>882</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J10" t="s">
-        <v>780</v>
+        <v>891</v>
       </c>
       <c r="K10" t="s">
-        <v>781</v>
+        <v>892</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>784</v>
+        <v>834</v>
       </c>
       <c r="N10" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O10" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -13400,46 +14231,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>798</v>
+        <v>849</v>
       </c>
       <c r="C11" t="s">
-        <v>813</v>
+        <v>866</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>828</v>
+        <v>883</v>
       </c>
       <c r="F11">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J11" t="s">
-        <v>780</v>
+        <v>891</v>
       </c>
       <c r="K11" t="s">
-        <v>781</v>
+        <v>892</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>784</v>
+        <v>834</v>
       </c>
       <c r="N11" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O11" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -13447,46 +14278,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>799</v>
+        <v>850</v>
       </c>
       <c r="C12" t="s">
-        <v>814</v>
+        <v>867</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>829</v>
+        <v>884</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J12" t="s">
-        <v>780</v>
+        <v>891</v>
       </c>
       <c r="K12" t="s">
-        <v>781</v>
+        <v>892</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N12" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O12" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -13494,46 +14325,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>800</v>
+        <v>851</v>
       </c>
       <c r="C13" t="s">
-        <v>815</v>
+        <v>868</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>830</v>
+        <v>885</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J13" t="s">
+        <v>891</v>
+      </c>
+      <c r="K13" t="s">
+        <v>892</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
         <v>834</v>
       </c>
-      <c r="K13" t="s">
-        <v>835</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="M13" t="s">
-        <v>787</v>
-      </c>
       <c r="N13" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O13" t="s">
-        <v>788</v>
+        <v>893</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -13541,46 +14372,46 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>801</v>
+        <v>852</v>
       </c>
       <c r="C14" t="s">
-        <v>816</v>
+        <v>869</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>831</v>
+        <v>886</v>
       </c>
       <c r="F14">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J14" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K14" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>782</v>
+        <v>839</v>
       </c>
       <c r="N14" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O14" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -13588,46 +14419,46 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>802</v>
+        <v>853</v>
       </c>
       <c r="C15" t="s">
-        <v>817</v>
+        <v>870</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>832</v>
+        <v>887</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J15" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K15" t="s">
+        <v>892</v>
+      </c>
+      <c r="L15">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
         <v>835</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>782</v>
-      </c>
       <c r="N15" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O15" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -13635,46 +14466,140 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>803</v>
+        <v>854</v>
       </c>
       <c r="C16" t="s">
-        <v>818</v>
+        <v>871</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>833</v>
+        <v>888</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J16" t="s">
-        <v>780</v>
+        <v>891</v>
       </c>
       <c r="K16" t="s">
-        <v>781</v>
+        <v>892</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N16" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O16" t="s">
-        <v>788</v>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>855</v>
+      </c>
+      <c r="C17" t="s">
+        <v>872</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>889</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>830</v>
+      </c>
+      <c r="J17" t="s">
+        <v>891</v>
+      </c>
+      <c r="K17" t="s">
+        <v>892</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17" t="s">
+        <v>835</v>
+      </c>
+      <c r="N17" t="s">
+        <v>840</v>
+      </c>
+      <c r="O17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>856</v>
+      </c>
+      <c r="C18" t="s">
+        <v>873</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>890</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>830</v>
+      </c>
+      <c r="J18" t="s">
+        <v>891</v>
+      </c>
+      <c r="K18" t="s">
+        <v>892</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>834</v>
+      </c>
+      <c r="N18" t="s">
+        <v>840</v>
+      </c>
+      <c r="O18" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -13695,10 +14620,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -13709,7 +14634,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>0.015</v>
+        <v>0.01386321626617375</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -13730,46 +14655,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>704</v>
+        <v>753</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -13777,46 +14702,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>838</v>
+        <v>894</v>
       </c>
       <c r="C2" t="s">
-        <v>852</v>
+        <v>909</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>867</v>
+        <v>924</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K2" t="s">
+        <v>833</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
         <v>835</v>
       </c>
-      <c r="L2">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>787</v>
-      </c>
       <c r="N2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O2" t="s">
-        <v>788</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -13824,46 +14749,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>839</v>
+        <v>895</v>
       </c>
       <c r="C3" t="s">
-        <v>853</v>
+        <v>910</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>868</v>
+        <v>925</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J3" t="s">
+        <v>891</v>
+      </c>
+      <c r="K3" t="s">
+        <v>892</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>834</v>
       </c>
-      <c r="K3" t="s">
-        <v>835</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>785</v>
-      </c>
       <c r="N3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -13871,46 +14796,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>840</v>
+        <v>896</v>
       </c>
       <c r="C4" t="s">
-        <v>854</v>
+        <v>911</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>869</v>
+        <v>926</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J4" t="s">
+        <v>891</v>
+      </c>
+      <c r="K4" t="s">
+        <v>892</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>834</v>
       </c>
-      <c r="K4" t="s">
-        <v>835</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
-        <v>784</v>
-      </c>
       <c r="N4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -13918,46 +14843,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>720</v>
+        <v>897</v>
       </c>
       <c r="C5" t="s">
-        <v>855</v>
+        <v>912</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>870</v>
+        <v>927</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J5" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K5" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>784</v>
+        <v>939</v>
       </c>
       <c r="N5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -13965,46 +14890,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>841</v>
+        <v>898</v>
       </c>
       <c r="C6" t="s">
-        <v>856</v>
+        <v>913</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>871</v>
+        <v>928</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J6" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K6" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -14012,46 +14937,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>842</v>
+        <v>899</v>
       </c>
       <c r="C7" t="s">
-        <v>857</v>
+        <v>914</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>872</v>
+        <v>929</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J7" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K7" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>782</v>
+        <v>839</v>
       </c>
       <c r="N7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -14059,46 +14984,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>843</v>
+        <v>900</v>
       </c>
       <c r="C8" t="s">
-        <v>858</v>
+        <v>915</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>873</v>
+        <v>930</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J8" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K8" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>782</v>
+        <v>836</v>
       </c>
       <c r="N8" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O8" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -14106,46 +15031,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>844</v>
+        <v>901</v>
       </c>
       <c r="C9" t="s">
-        <v>859</v>
+        <v>916</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>874</v>
+        <v>931</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J9" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K9" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>785</v>
+        <v>839</v>
       </c>
       <c r="N9" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O9" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -14153,46 +15078,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>845</v>
+        <v>902</v>
       </c>
       <c r="C10" t="s">
-        <v>860</v>
+        <v>917</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>875</v>
+        <v>932</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K10" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>782</v>
+        <v>836</v>
       </c>
       <c r="N10" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O10" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -14200,46 +15125,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>846</v>
+        <v>903</v>
       </c>
       <c r="C11" t="s">
-        <v>861</v>
+        <v>918</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>876</v>
+        <v>933</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>782</v>
+        <v>836</v>
       </c>
       <c r="N11" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O11" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -14247,46 +15172,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>847</v>
+        <v>904</v>
       </c>
       <c r="C12" t="s">
-        <v>862</v>
+        <v>919</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>877</v>
+        <v>934</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J12" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K12" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N12" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O12" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -14294,46 +15219,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>848</v>
+        <v>905</v>
       </c>
       <c r="C13" t="s">
-        <v>863</v>
+        <v>920</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>878</v>
+        <v>935</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J13" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="K13" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>782</v>
+        <v>839</v>
       </c>
       <c r="N13" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O13" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -14341,46 +15266,46 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>849</v>
+        <v>906</v>
       </c>
       <c r="C14" t="s">
-        <v>864</v>
+        <v>921</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>879</v>
+        <v>936</v>
       </c>
       <c r="F14">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J14" t="s">
+        <v>891</v>
+      </c>
+      <c r="K14" t="s">
+        <v>892</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>834</v>
       </c>
-      <c r="K14" t="s">
-        <v>835</v>
-      </c>
-      <c r="L14">
-        <v>16</v>
-      </c>
-      <c r="M14" t="s">
-        <v>787</v>
-      </c>
       <c r="N14" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O14" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -14388,46 +15313,46 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>850</v>
+        <v>907</v>
       </c>
       <c r="C15" t="s">
-        <v>865</v>
+        <v>922</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>880</v>
+        <v>937</v>
       </c>
       <c r="F15">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J15" t="s">
+        <v>891</v>
+      </c>
+      <c r="K15" t="s">
+        <v>892</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
         <v>834</v>
       </c>
-      <c r="K15" t="s">
-        <v>835</v>
-      </c>
-      <c r="L15">
-        <v>15</v>
-      </c>
-      <c r="M15" t="s">
-        <v>783</v>
-      </c>
       <c r="N15" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O15" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -14435,46 +15360,46 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>851</v>
+        <v>908</v>
       </c>
       <c r="C16" t="s">
-        <v>866</v>
+        <v>923</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>881</v>
+        <v>938</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J16" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K16" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="N16" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O16" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -14495,10 +15420,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14509,7 +15434,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.012</v>
+        <v>0.011090573012939</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -14530,46 +15455,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>704</v>
+        <v>753</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -14577,16 +15502,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>882</v>
+        <v>940</v>
       </c>
       <c r="C2" t="s">
-        <v>893</v>
+        <v>951</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>904</v>
+        <v>962</v>
       </c>
       <c r="F2">
         <v>31</v>
@@ -14598,25 +15523,25 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J2" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K2" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L2">
         <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O2" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -14624,16 +15549,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>883</v>
+        <v>941</v>
       </c>
       <c r="C3" t="s">
-        <v>894</v>
+        <v>952</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>905</v>
+        <v>963</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -14645,25 +15570,25 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J3" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K3" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L3">
         <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O3" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -14671,16 +15596,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>884</v>
+        <v>942</v>
       </c>
       <c r="C4" t="s">
-        <v>895</v>
+        <v>953</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>906</v>
+        <v>964</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -14692,25 +15617,25 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J4" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K4" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L4">
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -14718,16 +15643,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>885</v>
+        <v>943</v>
       </c>
       <c r="C5" t="s">
-        <v>896</v>
+        <v>954</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>907</v>
+        <v>965</v>
       </c>
       <c r="F5">
         <v>16</v>
@@ -14739,25 +15664,25 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J5" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K5" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L5">
         <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>918</v>
+        <v>976</v>
       </c>
       <c r="N5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -14765,16 +15690,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>886</v>
+        <v>944</v>
       </c>
       <c r="C6" t="s">
-        <v>897</v>
+        <v>955</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>908</v>
+        <v>966</v>
       </c>
       <c r="F6">
         <v>28</v>
@@ -14786,25 +15711,25 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J6" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K6" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L6">
         <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O6" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -14812,16 +15737,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>887</v>
+        <v>945</v>
       </c>
       <c r="C7" t="s">
-        <v>898</v>
+        <v>956</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>909</v>
+        <v>967</v>
       </c>
       <c r="F7">
         <v>18</v>
@@ -14833,25 +15758,25 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J7" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K7" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L7">
         <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>784</v>
+        <v>836</v>
       </c>
       <c r="N7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O7" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -14859,16 +15784,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>888</v>
+        <v>946</v>
       </c>
       <c r="C8" t="s">
-        <v>899</v>
+        <v>957</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>910</v>
+        <v>968</v>
       </c>
       <c r="F8">
         <v>35</v>
@@ -14880,25 +15805,25 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J8" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K8" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L8">
         <v>31</v>
       </c>
       <c r="M8" t="s">
-        <v>919</v>
+        <v>977</v>
       </c>
       <c r="N8" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O8" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -14906,16 +15831,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>889</v>
+        <v>947</v>
       </c>
       <c r="C9" t="s">
-        <v>900</v>
+        <v>958</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>911</v>
+        <v>969</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -14927,25 +15852,25 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J9" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K9" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L9">
         <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N9" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O9" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -14953,16 +15878,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>890</v>
+        <v>948</v>
       </c>
       <c r="C10" t="s">
-        <v>901</v>
+        <v>959</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>912</v>
+        <v>970</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -14974,25 +15899,25 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J10" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K10" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N10" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O10" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -15000,16 +15925,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>891</v>
+        <v>949</v>
       </c>
       <c r="C11" t="s">
-        <v>902</v>
+        <v>960</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>913</v>
+        <v>971</v>
       </c>
       <c r="F11">
         <v>14</v>
@@ -15021,25 +15946,25 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J11" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K11" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L11">
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N11" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O11" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -15047,16 +15972,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>892</v>
+        <v>950</v>
       </c>
       <c r="C12" t="s">
-        <v>903</v>
+        <v>961</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>914</v>
+        <v>972</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -15068,25 +15993,25 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="J12" t="s">
-        <v>915</v>
+        <v>973</v>
       </c>
       <c r="K12" t="s">
-        <v>916</v>
+        <v>974</v>
       </c>
       <c r="L12">
         <v>7</v>
       </c>
       <c r="M12" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
       <c r="N12" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="O12" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
